--- a/biology/Botanique/Tillandsia_digitata/Tillandsia_digitata.xlsx
+++ b/biology/Botanique/Tillandsia_digitata/Tillandsia_digitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia digitata Mez est une plante de la famille des Bromeliaceae.
 L'épithète digitata signifie « digitée ; comme des doigts » et se réfère à l'aspect de l'inflorescence.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia digitata Mez in C.DC., Monogr. Phan. 9: 715, n° 56 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis perdense rosulatis, utrinque lepidibus magnis, imbricatis, albis obtectis pruinose tomentellis ; inflorescentia digitatim e spicis 3-4 aequalibus, pinnatis, +/- 12-floris composita, erecta ; bracteis primariis quam spicae multo brevioribus ; bracteolis florigeris nec imbricatis nec axes obtegentibus, dorso dense lepidotis, sepala conspicue superantibus ; floribus erectis ; sepalis aequaliter liberis. »
-Type : « Costarica, unde in hortum Van Houtteanum introducta. (V. s. in herb. Leod.) »[1].
+Type : « Costarica, unde in hortum Van Houtteanum introducta. (V. s. in herb. Leod.) ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -634,10 +654,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Costa Rica[1]</t>
+ Costa Rica</t>
         </is>
       </c>
     </row>
@@ -666,6 +688,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
